--- a/FalseAug_SymDiGCN_WikiCS12-31-11:08:24_dir.xlsx
+++ b/FalseAug_SymDiGCN_WikiCS12-31-11:08:24_dir.xlsx
@@ -853,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,19 +871,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:  2, Val_loss:  2.32, time:2498.34, test_Acc:   5.95, test_bacc:  10.15, test_f1:   1.57</t>
+          <t>Epoch:  4, Val_loss:  2.32, time:4839.47, test_Acc:   8.50, test_bacc:  11.14, test_f1:   3.64</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:  1, Val_loss:  2.33, time:1976.20, test_Acc:   5.75, test_bacc:  10.03, test_f1:   1.19</t>
+          <t>Epoch:  3, Val_loss:  2.32, time:2737.90, test_Acc:   6.74, test_bacc:  10.55, test_f1:   2.70</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
+        <is>
+          <t>Epoch:  2, Val_loss:  2.32, time:2498.34, test_Acc:   5.95, test_bacc:  10.15, test_f1:   1.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Epoch:  1, Val_loss:  2.33, time:1976.20, test_Acc:   5.75, test_bacc:  10.03, test_f1:   1.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Epoch:  0, Val_loss:  2.33, time:1801.43, test_Acc:   5.70, test_bacc:  10.00, test_f1:   1.08</t>
         </is>

--- a/FalseAug_SymDiGCN_WikiCS12-31-11:08:24_dir.xlsx
+++ b/FalseAug_SymDiGCN_WikiCS12-31-11:08:24_dir.xlsx
@@ -853,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,33 +871,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:  4, Val_loss:  2.32, time:4839.47, test_Acc:   8.50, test_bacc:  11.14, test_f1:   3.64</t>
+          <t>Epoch:  5, Val_loss:  2.31, time:7605.52, test_Acc:   9.06, test_bacc:  10.21, test_f1:   3.30</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:  3, Val_loss:  2.32, time:2737.90, test_Acc:   6.74, test_bacc:  10.55, test_f1:   2.70</t>
+          <t>Epoch:  4, Val_loss:  2.32, time:4839.47, test_Acc:   8.50, test_bacc:  11.14, test_f1:   3.64</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:  2, Val_loss:  2.32, time:2498.34, test_Acc:   5.95, test_bacc:  10.15, test_f1:   1.57</t>
+          <t>Epoch:  3, Val_loss:  2.32, time:2737.90, test_Acc:   6.74, test_bacc:  10.55, test_f1:   2.70</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:  1, Val_loss:  2.33, time:1976.20, test_Acc:   5.75, test_bacc:  10.03, test_f1:   1.19</t>
+          <t>Epoch:  2, Val_loss:  2.32, time:2498.34, test_Acc:   5.95, test_bacc:  10.15, test_f1:   1.57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
+        <is>
+          <t>Epoch:  1, Val_loss:  2.33, time:1976.20, test_Acc:   5.75, test_bacc:  10.03, test_f1:   1.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Epoch:  0, Val_loss:  2.33, time:1801.43, test_Acc:   5.70, test_bacc:  10.00, test_f1:   1.08</t>
         </is>

--- a/FalseAug_SymDiGCN_WikiCS12-31-11:08:24_dir.xlsx
+++ b/FalseAug_SymDiGCN_WikiCS12-31-11:08:24_dir.xlsx
@@ -853,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,40 +871,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:  5, Val_loss:  2.31, time:7605.52, test_Acc:   9.06, test_bacc:  10.21, test_f1:   3.30</t>
+          <t>Epoch:  6, Val_loss:  2.31, time:7346.23, test_Acc:  10.19, test_bacc:  10.18, test_f1:   3.20</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:  4, Val_loss:  2.32, time:4839.47, test_Acc:   8.50, test_bacc:  11.14, test_f1:   3.64</t>
+          <t>Epoch:  5, Val_loss:  2.31, time:7605.52, test_Acc:   9.06, test_bacc:  10.21, test_f1:   3.30</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:  3, Val_loss:  2.32, time:2737.90, test_Acc:   6.74, test_bacc:  10.55, test_f1:   2.70</t>
+          <t>Epoch:  4, Val_loss:  2.32, time:4839.47, test_Acc:   8.50, test_bacc:  11.14, test_f1:   3.64</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:  2, Val_loss:  2.32, time:2498.34, test_Acc:   5.95, test_bacc:  10.15, test_f1:   1.57</t>
+          <t>Epoch:  3, Val_loss:  2.32, time:2737.90, test_Acc:   6.74, test_bacc:  10.55, test_f1:   2.70</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:  1, Val_loss:  2.33, time:1976.20, test_Acc:   5.75, test_bacc:  10.03, test_f1:   1.19</t>
+          <t>Epoch:  2, Val_loss:  2.32, time:2498.34, test_Acc:   5.95, test_bacc:  10.15, test_f1:   1.57</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
+        <is>
+          <t>Epoch:  1, Val_loss:  2.33, time:1976.20, test_Acc:   5.75, test_bacc:  10.03, test_f1:   1.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Epoch:  0, Val_loss:  2.33, time:1801.43, test_Acc:   5.70, test_bacc:  10.00, test_f1:   1.08</t>
         </is>

--- a/FalseAug_SymDiGCN_WikiCS12-31-11:08:24_dir.xlsx
+++ b/FalseAug_SymDiGCN_WikiCS12-31-11:08:24_dir.xlsx
@@ -853,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,47 +871,75 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:  6, Val_loss:  2.31, time:7346.23, test_Acc:  10.19, test_bacc:  10.18, test_f1:   3.20</t>
+          <t>Epoch: 10, Val_loss:  2.28, time:14896.98, test_Acc:  11.89, test_bacc:  10.38, test_f1:   2.96</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:  5, Val_loss:  2.31, time:7605.52, test_Acc:   9.06, test_bacc:  10.21, test_f1:   3.30</t>
+          <t>Epoch:  9, Val_loss:  2.29, time:15468.22, test_Acc:  11.89, test_bacc:  10.38, test_f1:   2.96</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:  4, Val_loss:  2.32, time:4839.47, test_Acc:   8.50, test_bacc:  11.14, test_f1:   3.64</t>
+          <t>Epoch:  8, Val_loss:  2.29, time:14726.28, test_Acc:  11.89, test_bacc:  10.38, test_f1:   2.96</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:  3, Val_loss:  2.32, time:2737.90, test_Acc:   6.74, test_bacc:  10.55, test_f1:   2.70</t>
+          <t>Epoch:  7, Val_loss:  2.30, time:12998.62, test_Acc:  11.08, test_bacc:  10.16, test_f1:   3.02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:  2, Val_loss:  2.32, time:2498.34, test_Acc:   5.95, test_bacc:  10.15, test_f1:   1.57</t>
+          <t>Epoch:  6, Val_loss:  2.31, time:7346.23, test_Acc:  10.19, test_bacc:  10.18, test_f1:   3.20</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epoch:  1, Val_loss:  2.33, time:1976.20, test_Acc:   5.75, test_bacc:  10.03, test_f1:   1.19</t>
+          <t>Epoch:  5, Val_loss:  2.31, time:7605.52, test_Acc:   9.06, test_bacc:  10.21, test_f1:   3.30</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
+        <is>
+          <t>Epoch:  4, Val_loss:  2.32, time:4839.47, test_Acc:   8.50, test_bacc:  11.14, test_f1:   3.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Epoch:  3, Val_loss:  2.32, time:2737.90, test_Acc:   6.74, test_bacc:  10.55, test_f1:   2.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Epoch:  2, Val_loss:  2.32, time:2498.34, test_Acc:   5.95, test_bacc:  10.15, test_f1:   1.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Epoch:  1, Val_loss:  2.33, time:1976.20, test_Acc:   5.75, test_bacc:  10.03, test_f1:   1.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Epoch:  0, Val_loss:  2.33, time:1801.43, test_Acc:   5.70, test_bacc:  10.00, test_f1:   1.08</t>
         </is>

--- a/FalseAug_SymDiGCN_WikiCS12-31-11:08:24_dir.xlsx
+++ b/FalseAug_SymDiGCN_WikiCS12-31-11:08:24_dir.xlsx
@@ -853,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,75 +871,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch: 10, Val_loss:  2.28, time:14896.98, test_Acc:  11.89, test_bacc:  10.38, test_f1:   2.96</t>
+          <t>Epoch: 11, Val_loss:  2.27, time:12469.99, test_Acc:  11.89, test_bacc:  10.38, test_f1:   2.96</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:  9, Val_loss:  2.29, time:15468.22, test_Acc:  11.89, test_bacc:  10.38, test_f1:   2.96</t>
+          <t>Epoch: 10, Val_loss:  2.28, time:14896.98, test_Acc:  11.89, test_bacc:  10.38, test_f1:   2.96</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:  8, Val_loss:  2.29, time:14726.28, test_Acc:  11.89, test_bacc:  10.38, test_f1:   2.96</t>
+          <t>Epoch:  9, Val_loss:  2.29, time:15468.22, test_Acc:  11.89, test_bacc:  10.38, test_f1:   2.96</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:  7, Val_loss:  2.30, time:12998.62, test_Acc:  11.08, test_bacc:  10.16, test_f1:   3.02</t>
+          <t>Epoch:  8, Val_loss:  2.29, time:14726.28, test_Acc:  11.89, test_bacc:  10.38, test_f1:   2.96</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:  6, Val_loss:  2.31, time:7346.23, test_Acc:  10.19, test_bacc:  10.18, test_f1:   3.20</t>
+          <t>Epoch:  7, Val_loss:  2.30, time:12998.62, test_Acc:  11.08, test_bacc:  10.16, test_f1:   3.02</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epoch:  5, Val_loss:  2.31, time:7605.52, test_Acc:   9.06, test_bacc:  10.21, test_f1:   3.30</t>
+          <t>Epoch:  6, Val_loss:  2.31, time:7346.23, test_Acc:  10.19, test_bacc:  10.18, test_f1:   3.20</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Epoch:  4, Val_loss:  2.32, time:4839.47, test_Acc:   8.50, test_bacc:  11.14, test_f1:   3.64</t>
+          <t>Epoch:  5, Val_loss:  2.31, time:7605.52, test_Acc:   9.06, test_bacc:  10.21, test_f1:   3.30</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Epoch:  3, Val_loss:  2.32, time:2737.90, test_Acc:   6.74, test_bacc:  10.55, test_f1:   2.70</t>
+          <t>Epoch:  4, Val_loss:  2.32, time:4839.47, test_Acc:   8.50, test_bacc:  11.14, test_f1:   3.64</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Epoch:  2, Val_loss:  2.32, time:2498.34, test_Acc:   5.95, test_bacc:  10.15, test_f1:   1.57</t>
+          <t>Epoch:  3, Val_loss:  2.32, time:2737.90, test_Acc:   6.74, test_bacc:  10.55, test_f1:   2.70</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Epoch:  1, Val_loss:  2.33, time:1976.20, test_Acc:   5.75, test_bacc:  10.03, test_f1:   1.19</t>
+          <t>Epoch:  2, Val_loss:  2.32, time:2498.34, test_Acc:   5.95, test_bacc:  10.15, test_f1:   1.57</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
+        <is>
+          <t>Epoch:  1, Val_loss:  2.33, time:1976.20, test_Acc:   5.75, test_bacc:  10.03, test_f1:   1.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Epoch:  0, Val_loss:  2.33, time:1801.43, test_Acc:   5.70, test_bacc:  10.00, test_f1:   1.08</t>
         </is>
